--- a/TAP_POM_Framework/data/TC0021.xlsx
+++ b/TAP_POM_Framework/data/TC0021.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>uname</t>
   </si>
@@ -27,10 +27,43 @@
     <t>pwd</t>
   </si>
   <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>appname</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>pcdate</t>
+  </si>
+  <si>
+    <t>startdate</t>
+  </si>
+  <si>
+    <t>enddate</t>
+  </si>
+  <si>
+    <t>sys_admin@ltts.com</t>
+  </si>
+  <si>
     <t>Rajravi@1</t>
   </si>
   <si>
-    <t>sys_admin@ltts.com</t>
+    <t>new Order</t>
+  </si>
+  <si>
+    <t>2019-07-24'</t>
+  </si>
+  <si>
+    <t>2019-25-07'</t>
+  </si>
+  <si>
+    <t>2020-07-25'</t>
+  </si>
+  <si>
+    <t>Darkstone</t>
   </si>
 </sst>
 </file>
@@ -75,9 +108,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -359,37 +394,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
